--- a/SuppXLS/Scen_UC_RNWELC_MinProd.xlsx
+++ b/SuppXLS/Scen_UC_RNWELC_MinProd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EC91D6-7A5A-4056-BD57-DD3526731221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1E78EF-F82E-49E2-A2A6-3D742473FFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{58752476-08F6-480F-B14A-373304AB5756}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{58752476-08F6-480F-B14A-373304AB5756}"/>
   </bookViews>
   <sheets>
     <sheet name="RNWELC_LO" sheetId="1" r:id="rId1"/>
@@ -620,7 +620,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,6 +628,7 @@
     <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
@@ -709,7 +710,7 @@
       <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" t="s">
         <v>23</v>
       </c>
       <c r="H6" t="s">
@@ -725,7 +726,7 @@
         <v>1</v>
       </c>
       <c r="L6">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -747,7 +748,7 @@
       <c r="E7" t="s">
         <v>21</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F7" t="s">
         <v>23</v>
       </c>
       <c r="H7" t="s">
@@ -763,7 +764,7 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>-0.9</v>
+        <v>0.9</v>
       </c>
       <c r="M7">
         <v>0</v>

--- a/SuppXLS/Scen_UC_RNWELC_MinProd.xlsx
+++ b/SuppXLS/Scen_UC_RNWELC_MinProd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1E78EF-F82E-49E2-A2A6-3D742473FFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E40410D-B196-4982-91D3-05E8B72922E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{58752476-08F6-480F-B14A-373304AB5756}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{58752476-08F6-480F-B14A-373304AB5756}"/>
   </bookViews>
   <sheets>
     <sheet name="RNWELC_LO" sheetId="1" r:id="rId1"/>
@@ -620,7 +620,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SuppXLS/Scen_UC_RNWELC_MinProd.xlsx
+++ b/SuppXLS/Scen_UC_RNWELC_MinProd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E40410D-B196-4982-91D3-05E8B72922E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9A3C25-8848-4627-AF43-CADD734D969B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{58752476-08F6-480F-B14A-373304AB5756}"/>
   </bookViews>
@@ -620,7 +620,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -726,7 +726,7 @@
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.9</v>
+        <v>-0.9</v>
       </c>
       <c r="M7">
         <v>0</v>

--- a/SuppXLS/Scen_UC_RNWELC_MinProd.xlsx
+++ b/SuppXLS/Scen_UC_RNWELC_MinProd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9A3C25-8848-4627-AF43-CADD734D969B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C670F9EC-93C5-46C8-8156-118846F5BBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{58752476-08F6-480F-B14A-373304AB5756}"/>
   </bookViews>
@@ -620,7 +620,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,7 +710,7 @@
       <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>23</v>
       </c>
       <c r="H6" t="s">
@@ -748,7 +748,7 @@
       <c r="E7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>23</v>
       </c>
       <c r="H7" t="s">

--- a/SuppXLS/Scen_UC_RNWELC_MinProd.xlsx
+++ b/SuppXLS/Scen_UC_RNWELC_MinProd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C670F9EC-93C5-46C8-8156-118846F5BBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F876F4C-56BD-4D6B-8C3F-CE45A8EF2D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{58752476-08F6-480F-B14A-373304AB5756}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>UC - Each Region/Period</t>
   </si>
@@ -111,13 +111,16 @@
   </si>
   <si>
     <t>UC_RNWELC_MinProd</t>
+  </si>
+  <si>
+    <t>DECELC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +151,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -195,7 +205,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -204,6 +214,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,7 +631,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -707,6 +718,9 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
+      <c r="D6" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
@@ -744,6 +758,9 @@
       </c>
       <c r="C7" t="s">
         <v>22</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>

--- a/SuppXLS/Scen_UC_RNWELC_MinProd.xlsx
+++ b/SuppXLS/Scen_UC_RNWELC_MinProd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F876F4C-56BD-4D6B-8C3F-CE45A8EF2D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABFFF63-C199-4868-82A2-82890AC50898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{58752476-08F6-480F-B14A-373304AB5756}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>UC - Each Region/Period</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>UC_RNWELC_MinProd</t>
-  </si>
-  <si>
-    <t>DECELC</t>
   </si>
 </sst>
 </file>
@@ -631,7 +628,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D6" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -718,9 +715,7 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="D6" s="8"/>
       <c r="E6" t="s">
         <v>21</v>
       </c>
@@ -759,9 +754,7 @@
       <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="D7" s="8"/>
       <c r="E7" t="s">
         <v>21</v>
       </c>

--- a/SuppXLS/Scen_UC_RNWELC_MinProd.xlsx
+++ b/SuppXLS/Scen_UC_RNWELC_MinProd.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABFFF63-C199-4868-82A2-82890AC50898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E69EB09-9A28-452F-83D1-00D1D5CE958A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{58752476-08F6-480F-B14A-373304AB5756}"/>
   </bookViews>
   <sheets>
-    <sheet name="RNWELC_LO" sheetId="1" r:id="rId1"/>
+    <sheet name="ELC_LO" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -101,16 +101,16 @@
     <t>UC_COMPRD</t>
   </si>
   <si>
-    <t>RNWELC</t>
-  </si>
-  <si>
     <t>DMD</t>
   </si>
   <si>
     <t>MANHEAT</t>
   </si>
   <si>
-    <t>UC_RNWELC_MinProd</t>
+    <t>UC_ELC_MinProd</t>
+  </si>
+  <si>
+    <t>ELC</t>
   </si>
 </sst>
 </file>
@@ -628,7 +628,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D7"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,17 +710,17 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
         <v>20</v>
@@ -749,17 +749,17 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
         <v>20</v>
